--- a/state_results/Contact_Recreation/ManawatuatFoxton_a4d78ac87e.xlsx
+++ b/state_results/Contact_Recreation/ManawatuatFoxton_a4d78ac87e.xlsx
@@ -908,7 +908,11 @@
           <t>E. coli (Primary Contact)</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr">
         <is>
           <t>2007 - 2011</t>
@@ -1344,7 +1348,11 @@
           <t>E. coli (Primary Contact)</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
       <c r="D11" t="inlineStr">
         <is>
           <t>2008 - 2012</t>
@@ -1780,7 +1788,11 @@
           <t>E. coli (Primary Contact)</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr">
         <is>
           <t>2009 - 2013</t>
@@ -2216,7 +2228,11 @@
           <t>E. coli (Primary Contact)</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr">
         <is>
           <t>2010 - 2014</t>
@@ -2652,7 +2668,11 @@
           <t>E. coli (Primary Contact)</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr"/>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
       <c r="D26" t="inlineStr">
         <is>
           <t>2011 - 2015</t>
@@ -3088,7 +3108,11 @@
           <t>E. coli (Primary Contact)</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr"/>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
       <c r="D31" t="inlineStr">
         <is>
           <t>2012 - 2016</t>
@@ -3524,7 +3548,11 @@
           <t>E. coli (Primary Contact)</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr"/>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
       <c r="D36" t="inlineStr">
         <is>
           <t>2013 - 2017</t>
@@ -3960,7 +3988,11 @@
           <t>E. coli (Primary Contact)</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr"/>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
       <c r="D41" t="inlineStr">
         <is>
           <t>2014 - 2018</t>
@@ -4396,7 +4428,11 @@
           <t>E. coli (Primary Contact)</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr"/>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
       <c r="D46" t="inlineStr">
         <is>
           <t>2015 - 2019</t>
@@ -4832,7 +4868,11 @@
           <t>E. coli (Primary Contact)</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr"/>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
       <c r="D51" t="inlineStr">
         <is>
           <t>2016 - 2020</t>
@@ -5268,7 +5308,11 @@
           <t>E. coli (Primary Contact)</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr"/>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
       <c r="D56" t="inlineStr">
         <is>
           <t>2017 - 2021</t>
@@ -5704,7 +5748,11 @@
           <t>E. coli (Primary Contact)</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr"/>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
       <c r="D61" t="inlineStr">
         <is>
           <t>2018 - 2022</t>

--- a/state_results/Contact_Recreation/ManawatuatFoxton_a4d78ac87e.xlsx
+++ b/state_results/Contact_Recreation/ManawatuatFoxton_a4d78ac87e.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="57">
   <si>
     <t>site name</t>
   </si>
@@ -155,6 +155,12 @@
   </si>
   <si>
     <t>2019 - 2023</t>
+  </si>
+  <si>
+    <t>2020 - 2024</t>
+  </si>
+  <si>
+    <t>2021 - 2025</t>
   </si>
   <si>
     <t>RepSite</t>
@@ -536,7 +542,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V66"/>
+  <dimension ref="A1:V76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -624,13 +630,13 @@
         <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F2">
         <v>69</v>
       </c>
       <c r="G2">
-        <v>712.723695364262</v>
+        <v>712.715764092311</v>
       </c>
       <c r="H2">
         <v>8570</v>
@@ -663,19 +669,19 @@
         <v>5517436</v>
       </c>
       <c r="R2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="S2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -692,13 +698,13 @@
         <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F3">
         <v>69</v>
       </c>
       <c r="G3">
-        <v>712.723695364262</v>
+        <v>712.715764092311</v>
       </c>
       <c r="H3">
         <v>8570</v>
@@ -731,19 +737,19 @@
         <v>5517436</v>
       </c>
       <c r="R3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="S3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -760,13 +766,13 @@
         <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F4">
         <v>69</v>
       </c>
       <c r="G4">
-        <v>712.723695364262</v>
+        <v>712.715764092311</v>
       </c>
       <c r="H4">
         <v>8570</v>
@@ -799,19 +805,19 @@
         <v>5517436</v>
       </c>
       <c r="R4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="S4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -828,13 +834,13 @@
         <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F5">
         <v>69</v>
       </c>
       <c r="G5">
-        <v>712.723695364262</v>
+        <v>712.715764092311</v>
       </c>
       <c r="H5">
         <v>8570</v>
@@ -867,19 +873,19 @@
         <v>5517436</v>
       </c>
       <c r="R5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="S5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -896,13 +902,13 @@
         <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F6">
         <v>69</v>
       </c>
       <c r="G6">
-        <v>712.723695364262</v>
+        <v>712.715764092311</v>
       </c>
       <c r="H6">
         <v>8570</v>
@@ -935,19 +941,19 @@
         <v>5517436</v>
       </c>
       <c r="R6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="S6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -964,13 +970,13 @@
         <v>35</v>
       </c>
       <c r="E7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F7">
         <v>110</v>
       </c>
       <c r="G7">
-        <v>927.9442727821649</v>
+        <v>927.93035876524</v>
       </c>
       <c r="H7">
         <v>13000</v>
@@ -1003,19 +1009,19 @@
         <v>5517436</v>
       </c>
       <c r="R7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="S7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -1032,13 +1038,13 @@
         <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F8">
         <v>110</v>
       </c>
       <c r="G8">
-        <v>927.9442727821649</v>
+        <v>927.93035876524</v>
       </c>
       <c r="H8">
         <v>13000</v>
@@ -1071,19 +1077,19 @@
         <v>5517436</v>
       </c>
       <c r="R8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="S8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -1100,13 +1106,13 @@
         <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F9">
         <v>110</v>
       </c>
       <c r="G9">
-        <v>927.9442727821649</v>
+        <v>927.93035876524</v>
       </c>
       <c r="H9">
         <v>13000</v>
@@ -1139,19 +1145,19 @@
         <v>5517436</v>
       </c>
       <c r="R9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="S9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -1168,13 +1174,13 @@
         <v>35</v>
       </c>
       <c r="E10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F10">
         <v>110</v>
       </c>
       <c r="G10">
-        <v>927.9442727821649</v>
+        <v>927.93035876524</v>
       </c>
       <c r="H10">
         <v>13000</v>
@@ -1207,19 +1213,19 @@
         <v>5517436</v>
       </c>
       <c r="R10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="S10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -1236,13 +1242,13 @@
         <v>35</v>
       </c>
       <c r="E11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F11">
         <v>110</v>
       </c>
       <c r="G11">
-        <v>927.9442727821649</v>
+        <v>927.93035876524</v>
       </c>
       <c r="H11">
         <v>13000</v>
@@ -1275,19 +1281,19 @@
         <v>5517436</v>
       </c>
       <c r="R11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="S11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -1304,13 +1310,13 @@
         <v>36</v>
       </c>
       <c r="E12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F12">
         <v>104.5</v>
       </c>
       <c r="G12">
-        <v>761.153286196322</v>
+        <v>761.143325025115</v>
       </c>
       <c r="H12">
         <v>13000</v>
@@ -1343,19 +1349,19 @@
         <v>5517436</v>
       </c>
       <c r="R12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="S12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U12" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -1372,13 +1378,13 @@
         <v>36</v>
       </c>
       <c r="E13" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F13">
         <v>104.5</v>
       </c>
       <c r="G13">
-        <v>761.153286196322</v>
+        <v>761.143325025115</v>
       </c>
       <c r="H13">
         <v>13000</v>
@@ -1411,19 +1417,19 @@
         <v>5517436</v>
       </c>
       <c r="R13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="S13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:22">
@@ -1440,13 +1446,13 @@
         <v>36</v>
       </c>
       <c r="E14" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F14">
         <v>104.5</v>
       </c>
       <c r="G14">
-        <v>761.153286196322</v>
+        <v>761.143325025115</v>
       </c>
       <c r="H14">
         <v>13000</v>
@@ -1479,19 +1485,19 @@
         <v>5517436</v>
       </c>
       <c r="R14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="S14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V14" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:22">
@@ -1508,13 +1514,13 @@
         <v>36</v>
       </c>
       <c r="E15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F15">
         <v>104.5</v>
       </c>
       <c r="G15">
-        <v>761.153286196322</v>
+        <v>761.143325025115</v>
       </c>
       <c r="H15">
         <v>13000</v>
@@ -1547,19 +1553,19 @@
         <v>5517436</v>
       </c>
       <c r="R15" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="S15" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T15" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U15" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V15" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:22">
@@ -1576,13 +1582,13 @@
         <v>36</v>
       </c>
       <c r="E16" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F16">
         <v>104.5</v>
       </c>
       <c r="G16">
-        <v>761.153286196322</v>
+        <v>761.143325025115</v>
       </c>
       <c r="H16">
         <v>13000</v>
@@ -1615,19 +1621,19 @@
         <v>5517436</v>
       </c>
       <c r="R16" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="S16" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T16" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U16" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V16" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:22">
@@ -1644,13 +1650,13 @@
         <v>37</v>
       </c>
       <c r="E17" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F17">
         <v>100</v>
       </c>
       <c r="G17">
-        <v>804.883219458171</v>
+        <v>796.703028185827</v>
       </c>
       <c r="H17">
         <v>13000</v>
@@ -1683,19 +1689,19 @@
         <v>5517436</v>
       </c>
       <c r="R17" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="S17" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T17" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U17" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:22">
@@ -1712,13 +1718,13 @@
         <v>37</v>
       </c>
       <c r="E18" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F18">
         <v>100</v>
       </c>
       <c r="G18">
-        <v>804.883219458171</v>
+        <v>796.703028185827</v>
       </c>
       <c r="H18">
         <v>13000</v>
@@ -1751,19 +1757,19 @@
         <v>5517436</v>
       </c>
       <c r="R18" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="S18" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T18" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U18" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:22">
@@ -1780,13 +1786,13 @@
         <v>37</v>
       </c>
       <c r="E19" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F19">
         <v>100</v>
       </c>
       <c r="G19">
-        <v>804.883219458171</v>
+        <v>796.703028185827</v>
       </c>
       <c r="H19">
         <v>13000</v>
@@ -1819,19 +1825,19 @@
         <v>5517436</v>
       </c>
       <c r="R19" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="S19" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T19" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U19" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V19" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:22">
@@ -1848,13 +1854,13 @@
         <v>37</v>
       </c>
       <c r="E20" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F20">
         <v>100</v>
       </c>
       <c r="G20">
-        <v>804.883219458171</v>
+        <v>796.703028185827</v>
       </c>
       <c r="H20">
         <v>13000</v>
@@ -1887,19 +1893,19 @@
         <v>5517436</v>
       </c>
       <c r="R20" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="S20" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T20" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U20" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V20" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:22">
@@ -1916,13 +1922,13 @@
         <v>37</v>
       </c>
       <c r="E21" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F21">
         <v>100</v>
       </c>
       <c r="G21">
-        <v>804.883219458171</v>
+        <v>796.703028185827</v>
       </c>
       <c r="H21">
         <v>13000</v>
@@ -1955,19 +1961,19 @@
         <v>5517436</v>
       </c>
       <c r="R21" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="S21" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T21" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U21" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V21" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:22">
@@ -1984,19 +1990,19 @@
         <v>38</v>
       </c>
       <c r="E22" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F22">
         <v>130</v>
       </c>
       <c r="G22">
-        <v>970.0082670051841</v>
+        <v>964.913190816997</v>
       </c>
       <c r="H22">
         <v>13000</v>
       </c>
       <c r="I22">
-        <v>5107.07284</v>
+        <v>5195.5</v>
       </c>
       <c r="J22">
         <v>27.5590551181102</v>
@@ -2023,19 +2029,19 @@
         <v>5517436</v>
       </c>
       <c r="R22" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="S22" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T22" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U22" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V22" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:22">
@@ -2052,19 +2058,19 @@
         <v>38</v>
       </c>
       <c r="E23" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F23">
         <v>130</v>
       </c>
       <c r="G23">
-        <v>970.0082670051841</v>
+        <v>964.913190816997</v>
       </c>
       <c r="H23">
         <v>13000</v>
       </c>
       <c r="I23">
-        <v>5107.07284</v>
+        <v>5195.5</v>
       </c>
       <c r="J23">
         <v>27.5590551181102</v>
@@ -2091,19 +2097,19 @@
         <v>5517436</v>
       </c>
       <c r="R23" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="S23" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T23" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U23" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V23" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:22">
@@ -2120,19 +2126,19 @@
         <v>38</v>
       </c>
       <c r="E24" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F24">
         <v>130</v>
       </c>
       <c r="G24">
-        <v>970.0082670051841</v>
+        <v>964.913190816997</v>
       </c>
       <c r="H24">
         <v>13000</v>
       </c>
       <c r="I24">
-        <v>5107.07284</v>
+        <v>5195.5</v>
       </c>
       <c r="J24">
         <v>27.5590551181102</v>
@@ -2159,19 +2165,19 @@
         <v>5517436</v>
       </c>
       <c r="R24" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="S24" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T24" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U24" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V24" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:22">
@@ -2188,19 +2194,19 @@
         <v>38</v>
       </c>
       <c r="E25" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F25">
         <v>130</v>
       </c>
       <c r="G25">
-        <v>970.0082670051841</v>
+        <v>964.913190816997</v>
       </c>
       <c r="H25">
         <v>13000</v>
       </c>
       <c r="I25">
-        <v>5107.07284</v>
+        <v>5195.5</v>
       </c>
       <c r="J25">
         <v>27.5590551181102</v>
@@ -2227,19 +2233,19 @@
         <v>5517436</v>
       </c>
       <c r="R25" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="S25" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T25" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U25" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V25" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:22">
@@ -2256,19 +2262,19 @@
         <v>38</v>
       </c>
       <c r="E26" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F26">
         <v>130</v>
       </c>
       <c r="G26">
-        <v>970.0082670051841</v>
+        <v>964.913190816997</v>
       </c>
       <c r="H26">
         <v>13000</v>
       </c>
       <c r="I26">
-        <v>5107.07284</v>
+        <v>5195.5</v>
       </c>
       <c r="J26">
         <v>27.5590551181102</v>
@@ -2295,19 +2301,19 @@
         <v>5517436</v>
       </c>
       <c r="R26" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="S26" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T26" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U26" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V26" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:22">
@@ -2324,13 +2330,13 @@
         <v>39</v>
       </c>
       <c r="E27" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F27">
         <v>140</v>
       </c>
       <c r="G27">
-        <v>866.995901637139</v>
+        <v>861.979710759214</v>
       </c>
       <c r="H27">
         <v>13000</v>
@@ -2363,19 +2369,19 @@
         <v>5517436</v>
       </c>
       <c r="R27" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="S27" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T27" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U27" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V27" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:22">
@@ -2392,13 +2398,13 @@
         <v>39</v>
       </c>
       <c r="E28" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F28">
         <v>140</v>
       </c>
       <c r="G28">
-        <v>866.995901637139</v>
+        <v>861.979710759214</v>
       </c>
       <c r="H28">
         <v>13000</v>
@@ -2431,19 +2437,19 @@
         <v>5517436</v>
       </c>
       <c r="R28" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="S28" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T28" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U28" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V28" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:22">
@@ -2460,13 +2466,13 @@
         <v>39</v>
       </c>
       <c r="E29" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F29">
         <v>140</v>
       </c>
       <c r="G29">
-        <v>866.995901637139</v>
+        <v>861.979710759214</v>
       </c>
       <c r="H29">
         <v>13000</v>
@@ -2499,19 +2505,19 @@
         <v>5517436</v>
       </c>
       <c r="R29" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="S29" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T29" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U29" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V29" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:22">
@@ -2528,13 +2534,13 @@
         <v>39</v>
       </c>
       <c r="E30" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F30">
         <v>140</v>
       </c>
       <c r="G30">
-        <v>866.995901637139</v>
+        <v>861.979710759214</v>
       </c>
       <c r="H30">
         <v>13000</v>
@@ -2567,19 +2573,19 @@
         <v>5517436</v>
       </c>
       <c r="R30" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="S30" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T30" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U30" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V30" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:22">
@@ -2596,13 +2602,13 @@
         <v>39</v>
       </c>
       <c r="E31" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F31">
         <v>140</v>
       </c>
       <c r="G31">
-        <v>866.995901637139</v>
+        <v>861.979710759214</v>
       </c>
       <c r="H31">
         <v>13000</v>
@@ -2635,19 +2641,19 @@
         <v>5517436</v>
       </c>
       <c r="R31" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="S31" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T31" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U31" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V31" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:22">
@@ -2664,16 +2670,16 @@
         <v>40</v>
       </c>
       <c r="E32" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F32">
         <v>150</v>
       </c>
       <c r="G32">
-        <v>814.898431443695</v>
+        <v>840.158170228729</v>
       </c>
       <c r="H32">
-        <v>12494.8738936485</v>
+        <v>11606.150602362</v>
       </c>
       <c r="I32">
         <v>3930</v>
@@ -2703,19 +2709,19 @@
         <v>5517436</v>
       </c>
       <c r="R32" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="S32" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T32" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U32" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V32" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:22">
@@ -2732,16 +2738,16 @@
         <v>40</v>
       </c>
       <c r="E33" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F33">
         <v>150</v>
       </c>
       <c r="G33">
-        <v>814.898431443695</v>
+        <v>840.158170228729</v>
       </c>
       <c r="H33">
-        <v>12494.8738936485</v>
+        <v>11606.150602362</v>
       </c>
       <c r="I33">
         <v>3930</v>
@@ -2771,19 +2777,19 @@
         <v>5517436</v>
       </c>
       <c r="R33" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="S33" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T33" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U33" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V33" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:22">
@@ -2800,16 +2806,16 @@
         <v>40</v>
       </c>
       <c r="E34" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F34">
         <v>150</v>
       </c>
       <c r="G34">
-        <v>814.898431443695</v>
+        <v>840.158170228729</v>
       </c>
       <c r="H34">
-        <v>12494.8738936485</v>
+        <v>11606.150602362</v>
       </c>
       <c r="I34">
         <v>3930</v>
@@ -2839,19 +2845,19 @@
         <v>5517436</v>
       </c>
       <c r="R34" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="S34" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T34" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U34" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V34" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:22">
@@ -2868,16 +2874,16 @@
         <v>40</v>
       </c>
       <c r="E35" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F35">
         <v>150</v>
       </c>
       <c r="G35">
-        <v>814.898431443695</v>
+        <v>840.158170228729</v>
       </c>
       <c r="H35">
-        <v>12494.8738936485</v>
+        <v>11606.150602362</v>
       </c>
       <c r="I35">
         <v>3930</v>
@@ -2907,19 +2913,19 @@
         <v>5517436</v>
       </c>
       <c r="R35" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="S35" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T35" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U35" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V35" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:22">
@@ -2936,16 +2942,16 @@
         <v>40</v>
       </c>
       <c r="E36" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F36">
         <v>150</v>
       </c>
       <c r="G36">
-        <v>814.898431443695</v>
+        <v>840.158170228729</v>
       </c>
       <c r="H36">
-        <v>12494.8738936485</v>
+        <v>11606.150602362</v>
       </c>
       <c r="I36">
         <v>3930</v>
@@ -2975,19 +2981,19 @@
         <v>5517436</v>
       </c>
       <c r="R36" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="S36" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T36" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V36" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:22">
@@ -3004,16 +3010,16 @@
         <v>41</v>
       </c>
       <c r="E37" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F37">
         <v>150</v>
       </c>
       <c r="G37">
-        <v>848.391288796156</v>
+        <v>873.651135700202</v>
       </c>
       <c r="H37">
-        <v>12494.8738936485</v>
+        <v>11606.150602362</v>
       </c>
       <c r="I37">
         <v>4357.5</v>
@@ -3043,19 +3049,19 @@
         <v>5517436</v>
       </c>
       <c r="R37" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="S37" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U37" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V37" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:22">
@@ -3072,16 +3078,16 @@
         <v>41</v>
       </c>
       <c r="E38" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F38">
         <v>150</v>
       </c>
       <c r="G38">
-        <v>848.391288796156</v>
+        <v>873.651135700202</v>
       </c>
       <c r="H38">
-        <v>12494.8738936485</v>
+        <v>11606.150602362</v>
       </c>
       <c r="I38">
         <v>4357.5</v>
@@ -3111,19 +3117,19 @@
         <v>5517436</v>
       </c>
       <c r="R38" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="S38" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T38" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U38" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V38" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:22">
@@ -3140,16 +3146,16 @@
         <v>41</v>
       </c>
       <c r="E39" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F39">
         <v>150</v>
       </c>
       <c r="G39">
-        <v>848.391288796156</v>
+        <v>873.651135700202</v>
       </c>
       <c r="H39">
-        <v>12494.8738936485</v>
+        <v>11606.150602362</v>
       </c>
       <c r="I39">
         <v>4357.5</v>
@@ -3179,19 +3185,19 @@
         <v>5517436</v>
       </c>
       <c r="R39" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="S39" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T39" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U39" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V39" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:22">
@@ -3208,16 +3214,16 @@
         <v>41</v>
       </c>
       <c r="E40" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F40">
         <v>150</v>
       </c>
       <c r="G40">
-        <v>848.391288796156</v>
+        <v>873.651135700202</v>
       </c>
       <c r="H40">
-        <v>12494.8738936485</v>
+        <v>11606.150602362</v>
       </c>
       <c r="I40">
         <v>4357.5</v>
@@ -3247,19 +3253,19 @@
         <v>5517436</v>
       </c>
       <c r="R40" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="S40" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T40" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U40" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V40" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:22">
@@ -3276,16 +3282,16 @@
         <v>41</v>
       </c>
       <c r="E41" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F41">
         <v>150</v>
       </c>
       <c r="G41">
-        <v>848.391288796156</v>
+        <v>873.651135700202</v>
       </c>
       <c r="H41">
-        <v>12494.8738936485</v>
+        <v>11606.150602362</v>
       </c>
       <c r="I41">
         <v>4357.5</v>
@@ -3315,19 +3321,19 @@
         <v>5517436</v>
       </c>
       <c r="R41" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="S41" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T41" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U41" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V41" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:22">
@@ -3344,16 +3350,16 @@
         <v>42</v>
       </c>
       <c r="E42" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F42">
         <v>150</v>
       </c>
       <c r="G42">
-        <v>723.177803395815</v>
+        <v>756.228885913726</v>
       </c>
       <c r="H42">
-        <v>10612.2672568389</v>
+        <v>11606.150602362</v>
       </c>
       <c r="I42">
         <v>3797.5</v>
@@ -3383,19 +3389,19 @@
         <v>5517436</v>
       </c>
       <c r="R42" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="S42" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T42" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U42" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V42" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:22">
@@ -3412,16 +3418,16 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F43">
         <v>150</v>
       </c>
       <c r="G43">
-        <v>723.177803395815</v>
+        <v>756.228885913726</v>
       </c>
       <c r="H43">
-        <v>10612.2672568389</v>
+        <v>11606.150602362</v>
       </c>
       <c r="I43">
         <v>3797.5</v>
@@ -3451,19 +3457,19 @@
         <v>5517436</v>
       </c>
       <c r="R43" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="S43" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T43" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U43" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V43" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:22">
@@ -3480,16 +3486,16 @@
         <v>42</v>
       </c>
       <c r="E44" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F44">
         <v>150</v>
       </c>
       <c r="G44">
-        <v>723.177803395815</v>
+        <v>756.228885913726</v>
       </c>
       <c r="H44">
-        <v>10612.2672568389</v>
+        <v>11606.150602362</v>
       </c>
       <c r="I44">
         <v>3797.5</v>
@@ -3519,19 +3525,19 @@
         <v>5517436</v>
       </c>
       <c r="R44" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="S44" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T44" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U44" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V44" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:22">
@@ -3548,16 +3554,16 @@
         <v>42</v>
       </c>
       <c r="E45" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F45">
         <v>150</v>
       </c>
       <c r="G45">
-        <v>723.177803395815</v>
+        <v>756.228885913726</v>
       </c>
       <c r="H45">
-        <v>10612.2672568389</v>
+        <v>11606.150602362</v>
       </c>
       <c r="I45">
         <v>3797.5</v>
@@ -3587,19 +3593,19 @@
         <v>5517436</v>
       </c>
       <c r="R45" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="S45" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T45" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U45" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V45" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:22">
@@ -3616,16 +3622,16 @@
         <v>42</v>
       </c>
       <c r="E46" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F46">
         <v>150</v>
       </c>
       <c r="G46">
-        <v>723.177803395815</v>
+        <v>756.228885913726</v>
       </c>
       <c r="H46">
-        <v>10612.2672568389</v>
+        <v>11606.150602362</v>
       </c>
       <c r="I46">
         <v>3797.5</v>
@@ -3655,19 +3661,19 @@
         <v>5517436</v>
       </c>
       <c r="R46" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="S46" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T46" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U46" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V46" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:22">
@@ -3684,16 +3690,16 @@
         <v>43</v>
       </c>
       <c r="E47" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F47">
         <v>121</v>
       </c>
       <c r="G47">
-        <v>478.218429165807</v>
+        <v>510.484343491739</v>
       </c>
       <c r="H47">
-        <v>7701.13880184448</v>
+        <v>11606.150602362</v>
       </c>
       <c r="I47">
         <v>2418.5</v>
@@ -3723,19 +3729,19 @@
         <v>5517436</v>
       </c>
       <c r="R47" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="S47" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T47" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U47" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V47" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="48" spans="1:22">
@@ -3752,16 +3758,16 @@
         <v>43</v>
       </c>
       <c r="E48" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F48">
         <v>121</v>
       </c>
       <c r="G48">
-        <v>478.218429165807</v>
+        <v>510.484343491739</v>
       </c>
       <c r="H48">
-        <v>7701.13880184448</v>
+        <v>11606.150602362</v>
       </c>
       <c r="I48">
         <v>2418.5</v>
@@ -3791,19 +3797,19 @@
         <v>5517436</v>
       </c>
       <c r="R48" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="S48" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T48" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U48" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V48" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49" spans="1:22">
@@ -3820,16 +3826,16 @@
         <v>43</v>
       </c>
       <c r="E49" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F49">
         <v>121</v>
       </c>
       <c r="G49">
-        <v>478.218429165807</v>
+        <v>510.484343491739</v>
       </c>
       <c r="H49">
-        <v>7701.13880184448</v>
+        <v>11606.150602362</v>
       </c>
       <c r="I49">
         <v>2418.5</v>
@@ -3859,19 +3865,19 @@
         <v>5517436</v>
       </c>
       <c r="R49" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="S49" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T49" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U49" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V49" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="50" spans="1:22">
@@ -3888,16 +3894,16 @@
         <v>43</v>
       </c>
       <c r="E50" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F50">
         <v>121</v>
       </c>
       <c r="G50">
-        <v>478.218429165807</v>
+        <v>510.484343491739</v>
       </c>
       <c r="H50">
-        <v>7701.13880184448</v>
+        <v>11606.150602362</v>
       </c>
       <c r="I50">
         <v>2418.5</v>
@@ -3927,19 +3933,19 @@
         <v>5517436</v>
       </c>
       <c r="R50" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="S50" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T50" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U50" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V50" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="1:22">
@@ -3956,16 +3962,16 @@
         <v>43</v>
       </c>
       <c r="E51" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F51">
         <v>121</v>
       </c>
       <c r="G51">
-        <v>478.218429165807</v>
+        <v>510.484343491739</v>
       </c>
       <c r="H51">
-        <v>7701.13880184448</v>
+        <v>11606.150602362</v>
       </c>
       <c r="I51">
         <v>2418.5</v>
@@ -3995,19 +4001,19 @@
         <v>5517436</v>
       </c>
       <c r="R51" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="S51" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T51" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U51" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V51" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52" spans="1:22">
@@ -4024,16 +4030,16 @@
         <v>44</v>
       </c>
       <c r="E52" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F52">
         <v>110</v>
       </c>
       <c r="G52">
-        <v>471.286916075522</v>
+        <v>503.821713020837</v>
       </c>
       <c r="H52">
-        <v>7701.13880184448</v>
+        <v>11606.150602362</v>
       </c>
       <c r="I52">
         <v>2495</v>
@@ -4063,19 +4069,19 @@
         <v>5517436</v>
       </c>
       <c r="R52" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="S52" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T52" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U52" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V52" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53" spans="1:22">
@@ -4092,16 +4098,16 @@
         <v>44</v>
       </c>
       <c r="E53" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F53">
         <v>110</v>
       </c>
       <c r="G53">
-        <v>471.286916075522</v>
+        <v>503.821713020837</v>
       </c>
       <c r="H53">
-        <v>7701.13880184448</v>
+        <v>11606.150602362</v>
       </c>
       <c r="I53">
         <v>2495</v>
@@ -4131,19 +4137,19 @@
         <v>5517436</v>
       </c>
       <c r="R53" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="S53" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T53" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U53" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V53" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="54" spans="1:22">
@@ -4160,16 +4166,16 @@
         <v>44</v>
       </c>
       <c r="E54" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F54">
         <v>110</v>
       </c>
       <c r="G54">
-        <v>471.286916075522</v>
+        <v>503.821713020837</v>
       </c>
       <c r="H54">
-        <v>7701.13880184448</v>
+        <v>11606.150602362</v>
       </c>
       <c r="I54">
         <v>2495</v>
@@ -4199,19 +4205,19 @@
         <v>5517436</v>
       </c>
       <c r="R54" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="S54" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T54" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U54" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V54" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="55" spans="1:22">
@@ -4228,16 +4234,16 @@
         <v>44</v>
       </c>
       <c r="E55" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F55">
         <v>110</v>
       </c>
       <c r="G55">
-        <v>471.286916075522</v>
+        <v>503.821713020837</v>
       </c>
       <c r="H55">
-        <v>7701.13880184448</v>
+        <v>11606.150602362</v>
       </c>
       <c r="I55">
         <v>2495</v>
@@ -4267,19 +4273,19 @@
         <v>5517436</v>
       </c>
       <c r="R55" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="S55" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T55" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U55" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V55" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="56" spans="1:22">
@@ -4296,16 +4302,16 @@
         <v>44</v>
       </c>
       <c r="E56" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F56">
         <v>110</v>
       </c>
       <c r="G56">
-        <v>471.286916075522</v>
+        <v>503.821713020837</v>
       </c>
       <c r="H56">
-        <v>7701.13880184448</v>
+        <v>11606.150602362</v>
       </c>
       <c r="I56">
         <v>2495</v>
@@ -4335,19 +4341,19 @@
         <v>5517436</v>
       </c>
       <c r="R56" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="S56" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T56" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U56" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V56" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="57" spans="1:22">
@@ -4364,13 +4370,13 @@
         <v>45</v>
       </c>
       <c r="E57" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F57">
         <v>109.5</v>
       </c>
       <c r="G57">
-        <v>487.641026310409</v>
+        <v>487.633919532195</v>
       </c>
       <c r="H57">
         <v>7700</v>
@@ -4403,19 +4409,19 @@
         <v>5517436</v>
       </c>
       <c r="R57" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="S57" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T57" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U57" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V57" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58" spans="1:22">
@@ -4432,13 +4438,13 @@
         <v>45</v>
       </c>
       <c r="E58" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F58">
         <v>109.5</v>
       </c>
       <c r="G58">
-        <v>487.641026310409</v>
+        <v>487.633919532195</v>
       </c>
       <c r="H58">
         <v>7700</v>
@@ -4471,19 +4477,19 @@
         <v>5517436</v>
       </c>
       <c r="R58" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="S58" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T58" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U58" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V58" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59" spans="1:22">
@@ -4500,13 +4506,13 @@
         <v>45</v>
       </c>
       <c r="E59" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F59">
         <v>109.5</v>
       </c>
       <c r="G59">
-        <v>487.641026310409</v>
+        <v>487.633919532195</v>
       </c>
       <c r="H59">
         <v>7700</v>
@@ -4539,19 +4545,19 @@
         <v>5517436</v>
       </c>
       <c r="R59" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="S59" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T59" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U59" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V59" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="60" spans="1:22">
@@ -4568,13 +4574,13 @@
         <v>45</v>
       </c>
       <c r="E60" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F60">
         <v>109.5</v>
       </c>
       <c r="G60">
-        <v>487.641026310409</v>
+        <v>487.633919532195</v>
       </c>
       <c r="H60">
         <v>7700</v>
@@ -4607,19 +4613,19 @@
         <v>5517436</v>
       </c>
       <c r="R60" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="S60" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T60" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U60" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V60" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="61" spans="1:22">
@@ -4636,13 +4642,13 @@
         <v>45</v>
       </c>
       <c r="E61" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F61">
         <v>109.5</v>
       </c>
       <c r="G61">
-        <v>487.641026310409</v>
+        <v>487.633919532195</v>
       </c>
       <c r="H61">
         <v>7700</v>
@@ -4675,19 +4681,19 @@
         <v>5517436</v>
       </c>
       <c r="R61" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="S61" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T61" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U61" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V61" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="62" spans="1:22">
@@ -4704,13 +4710,13 @@
         <v>46</v>
       </c>
       <c r="E62" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F62">
         <v>110</v>
       </c>
       <c r="G62">
-        <v>639.731617698831</v>
+        <v>639.7244534367979</v>
       </c>
       <c r="H62">
         <v>8160</v>
@@ -4743,19 +4749,19 @@
         <v>5517436</v>
       </c>
       <c r="R62" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="S62" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T62" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U62" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V62" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="63" spans="1:22">
@@ -4772,13 +4778,13 @@
         <v>46</v>
       </c>
       <c r="E63" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F63">
         <v>110</v>
       </c>
       <c r="G63">
-        <v>639.731617698831</v>
+        <v>639.7244534367979</v>
       </c>
       <c r="H63">
         <v>8160</v>
@@ -4811,19 +4817,19 @@
         <v>5517436</v>
       </c>
       <c r="R63" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="S63" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T63" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U63" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V63" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="64" spans="1:22">
@@ -4840,13 +4846,13 @@
         <v>46</v>
       </c>
       <c r="E64" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F64">
         <v>110</v>
       </c>
       <c r="G64">
-        <v>639.731617698831</v>
+        <v>639.7244534367979</v>
       </c>
       <c r="H64">
         <v>8160</v>
@@ -4879,19 +4885,19 @@
         <v>5517436</v>
       </c>
       <c r="R64" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="S64" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T64" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U64" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V64" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="65" spans="1:22">
@@ -4908,13 +4914,13 @@
         <v>46</v>
       </c>
       <c r="E65" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F65">
         <v>110</v>
       </c>
       <c r="G65">
-        <v>639.731617698831</v>
+        <v>639.7244534367979</v>
       </c>
       <c r="H65">
         <v>8160</v>
@@ -4947,19 +4953,19 @@
         <v>5517436</v>
       </c>
       <c r="R65" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="S65" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T65" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U65" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V65" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="66" spans="1:22">
@@ -4976,13 +4982,13 @@
         <v>46</v>
       </c>
       <c r="E66" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F66">
         <v>110</v>
       </c>
       <c r="G66">
-        <v>639.731617698831</v>
+        <v>639.7244534367979</v>
       </c>
       <c r="H66">
         <v>8160</v>
@@ -5015,19 +5021,699 @@
         <v>5517436</v>
       </c>
       <c r="R66" t="s">
+        <v>50</v>
+      </c>
+      <c r="S66" t="s">
+        <v>51</v>
+      </c>
+      <c r="T66" t="s">
+        <v>52</v>
+      </c>
+      <c r="U66" t="s">
+        <v>53</v>
+      </c>
+      <c r="V66" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22">
+      <c r="A67" t="s">
+        <v>22</v>
+      </c>
+      <c r="B67" t="s">
+        <v>23</v>
+      </c>
+      <c r="C67" t="s">
+        <v>33</v>
+      </c>
+      <c r="D67" t="s">
+        <v>47</v>
+      </c>
+      <c r="E67" t="s">
+        <v>49</v>
+      </c>
+      <c r="F67">
+        <v>145</v>
+      </c>
+      <c r="G67">
+        <v>629.4697673453931</v>
+      </c>
+      <c r="H67">
+        <v>8160</v>
+      </c>
+      <c r="I67">
+        <v>4035</v>
+      </c>
+      <c r="J67">
+        <v>20.1680672268908</v>
+      </c>
+      <c r="K67">
+        <v>39.4957983193277</v>
+      </c>
+      <c r="L67">
+        <v>176</v>
+      </c>
+      <c r="M67">
+        <v>539.9</v>
+      </c>
+      <c r="N67">
+        <v>691.37</v>
+      </c>
+      <c r="O67">
+        <v>2129.48</v>
+      </c>
+      <c r="P67">
+        <v>1789653</v>
+      </c>
+      <c r="Q67">
+        <v>5517436</v>
+      </c>
+      <c r="R67" t="s">
+        <v>50</v>
+      </c>
+      <c r="S67" t="s">
+        <v>51</v>
+      </c>
+      <c r="T67" t="s">
+        <v>52</v>
+      </c>
+      <c r="U67" t="s">
+        <v>53</v>
+      </c>
+      <c r="V67" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22">
+      <c r="A68" t="s">
+        <v>22</v>
+      </c>
+      <c r="B68" t="s">
+        <v>24</v>
+      </c>
+      <c r="C68" t="s">
+        <v>33</v>
+      </c>
+      <c r="D68" t="s">
+        <v>47</v>
+      </c>
+      <c r="E68" t="s">
+        <v>49</v>
+      </c>
+      <c r="F68">
+        <v>145</v>
+      </c>
+      <c r="G68">
+        <v>629.4697673453931</v>
+      </c>
+      <c r="H68">
+        <v>8160</v>
+      </c>
+      <c r="I68">
+        <v>4035</v>
+      </c>
+      <c r="J68">
+        <v>20.1680672268908</v>
+      </c>
+      <c r="K68">
+        <v>39.4957983193277</v>
+      </c>
+      <c r="L68">
+        <v>176</v>
+      </c>
+      <c r="M68">
+        <v>539.9</v>
+      </c>
+      <c r="N68">
+        <v>691.37</v>
+      </c>
+      <c r="O68">
+        <v>2129.48</v>
+      </c>
+      <c r="P68">
+        <v>1789653</v>
+      </c>
+      <c r="Q68">
+        <v>5517436</v>
+      </c>
+      <c r="R68" t="s">
+        <v>50</v>
+      </c>
+      <c r="S68" t="s">
+        <v>51</v>
+      </c>
+      <c r="T68" t="s">
+        <v>52</v>
+      </c>
+      <c r="U68" t="s">
+        <v>53</v>
+      </c>
+      <c r="V68" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22">
+      <c r="A69" t="s">
+        <v>22</v>
+      </c>
+      <c r="B69" t="s">
+        <v>25</v>
+      </c>
+      <c r="C69" t="s">
+        <v>33</v>
+      </c>
+      <c r="D69" t="s">
+        <v>47</v>
+      </c>
+      <c r="E69" t="s">
+        <v>49</v>
+      </c>
+      <c r="F69">
+        <v>145</v>
+      </c>
+      <c r="G69">
+        <v>629.4697673453931</v>
+      </c>
+      <c r="H69">
+        <v>8160</v>
+      </c>
+      <c r="I69">
+        <v>4035</v>
+      </c>
+      <c r="J69">
+        <v>20.1680672268908</v>
+      </c>
+      <c r="K69">
+        <v>39.4957983193277</v>
+      </c>
+      <c r="L69">
+        <v>176</v>
+      </c>
+      <c r="M69">
+        <v>539.9</v>
+      </c>
+      <c r="N69">
+        <v>691.37</v>
+      </c>
+      <c r="O69">
+        <v>2129.48</v>
+      </c>
+      <c r="P69">
+        <v>1789653</v>
+      </c>
+      <c r="Q69">
+        <v>5517436</v>
+      </c>
+      <c r="R69" t="s">
+        <v>50</v>
+      </c>
+      <c r="S69" t="s">
+        <v>51</v>
+      </c>
+      <c r="T69" t="s">
+        <v>52</v>
+      </c>
+      <c r="U69" t="s">
+        <v>53</v>
+      </c>
+      <c r="V69" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22">
+      <c r="A70" t="s">
+        <v>22</v>
+      </c>
+      <c r="B70" t="s">
+        <v>26</v>
+      </c>
+      <c r="C70" t="s">
+        <v>31</v>
+      </c>
+      <c r="D70" t="s">
+        <v>47</v>
+      </c>
+      <c r="E70" t="s">
+        <v>49</v>
+      </c>
+      <c r="F70">
+        <v>145</v>
+      </c>
+      <c r="G70">
+        <v>629.4697673453931</v>
+      </c>
+      <c r="H70">
+        <v>8160</v>
+      </c>
+      <c r="I70">
+        <v>4035</v>
+      </c>
+      <c r="J70">
+        <v>20.1680672268908</v>
+      </c>
+      <c r="K70">
+        <v>39.4957983193277</v>
+      </c>
+      <c r="L70">
+        <v>176</v>
+      </c>
+      <c r="M70">
+        <v>539.9</v>
+      </c>
+      <c r="N70">
+        <v>691.37</v>
+      </c>
+      <c r="O70">
+        <v>2129.48</v>
+      </c>
+      <c r="P70">
+        <v>1789653</v>
+      </c>
+      <c r="Q70">
+        <v>5517436</v>
+      </c>
+      <c r="R70" t="s">
+        <v>50</v>
+      </c>
+      <c r="S70" t="s">
+        <v>51</v>
+      </c>
+      <c r="T70" t="s">
+        <v>52</v>
+      </c>
+      <c r="U70" t="s">
+        <v>53</v>
+      </c>
+      <c r="V70" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22">
+      <c r="A71" t="s">
+        <v>22</v>
+      </c>
+      <c r="B71" t="s">
+        <v>27</v>
+      </c>
+      <c r="C71" t="s">
+        <v>32</v>
+      </c>
+      <c r="D71" t="s">
+        <v>47</v>
+      </c>
+      <c r="E71" t="s">
+        <v>49</v>
+      </c>
+      <c r="F71">
+        <v>145</v>
+      </c>
+      <c r="G71">
+        <v>629.4697673453931</v>
+      </c>
+      <c r="H71">
+        <v>8160</v>
+      </c>
+      <c r="I71">
+        <v>4035</v>
+      </c>
+      <c r="J71">
+        <v>20.1680672268908</v>
+      </c>
+      <c r="K71">
+        <v>39.4957983193277</v>
+      </c>
+      <c r="L71">
+        <v>176</v>
+      </c>
+      <c r="M71">
+        <v>539.9</v>
+      </c>
+      <c r="N71">
+        <v>691.37</v>
+      </c>
+      <c r="O71">
+        <v>2129.48</v>
+      </c>
+      <c r="P71">
+        <v>1789653</v>
+      </c>
+      <c r="Q71">
+        <v>5517436</v>
+      </c>
+      <c r="R71" t="s">
+        <v>50</v>
+      </c>
+      <c r="S71" t="s">
+        <v>51</v>
+      </c>
+      <c r="T71" t="s">
+        <v>52</v>
+      </c>
+      <c r="U71" t="s">
+        <v>53</v>
+      </c>
+      <c r="V71" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22">
+      <c r="A72" t="s">
+        <v>22</v>
+      </c>
+      <c r="B72" t="s">
+        <v>23</v>
+      </c>
+      <c r="C72" t="s">
+        <v>33</v>
+      </c>
+      <c r="D72" t="s">
         <v>48</v>
       </c>
-      <c r="S66" t="s">
-        <v>49</v>
-      </c>
-      <c r="T66" t="s">
-        <v>50</v>
-      </c>
-      <c r="U66" t="s">
-        <v>51</v>
-      </c>
-      <c r="V66" t="s">
+      <c r="E72" t="s">
+        <v>49</v>
+      </c>
+      <c r="F72">
+        <v>160</v>
+      </c>
+      <c r="G72">
+        <v>690.659882792642</v>
+      </c>
+      <c r="H72">
+        <v>8160</v>
+      </c>
+      <c r="I72">
+        <v>4509</v>
+      </c>
+      <c r="J72">
+        <v>20.1612903225806</v>
+      </c>
+      <c r="K72">
+        <v>39.5161290322581</v>
+      </c>
+      <c r="L72">
+        <v>169</v>
+      </c>
+      <c r="M72">
+        <v>570</v>
+      </c>
+      <c r="N72">
+        <v>950.78</v>
+      </c>
+      <c r="O72">
+        <v>2721.74</v>
+      </c>
+      <c r="P72">
+        <v>1789653</v>
+      </c>
+      <c r="Q72">
+        <v>5517436</v>
+      </c>
+      <c r="R72" t="s">
+        <v>50</v>
+      </c>
+      <c r="S72" t="s">
+        <v>51</v>
+      </c>
+      <c r="T72" t="s">
+        <v>52</v>
+      </c>
+      <c r="U72" t="s">
+        <v>53</v>
+      </c>
+      <c r="V72" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22">
+      <c r="A73" t="s">
+        <v>22</v>
+      </c>
+      <c r="B73" t="s">
+        <v>24</v>
+      </c>
+      <c r="C73" t="s">
+        <v>33</v>
+      </c>
+      <c r="D73" t="s">
+        <v>48</v>
+      </c>
+      <c r="E73" t="s">
+        <v>49</v>
+      </c>
+      <c r="F73">
+        <v>160</v>
+      </c>
+      <c r="G73">
+        <v>690.659882792642</v>
+      </c>
+      <c r="H73">
+        <v>8160</v>
+      </c>
+      <c r="I73">
+        <v>4509</v>
+      </c>
+      <c r="J73">
+        <v>20.1612903225806</v>
+      </c>
+      <c r="K73">
+        <v>39.5161290322581</v>
+      </c>
+      <c r="L73">
+        <v>169</v>
+      </c>
+      <c r="M73">
+        <v>570</v>
+      </c>
+      <c r="N73">
+        <v>950.78</v>
+      </c>
+      <c r="O73">
+        <v>2721.74</v>
+      </c>
+      <c r="P73">
+        <v>1789653</v>
+      </c>
+      <c r="Q73">
+        <v>5517436</v>
+      </c>
+      <c r="R73" t="s">
+        <v>50</v>
+      </c>
+      <c r="S73" t="s">
+        <v>51</v>
+      </c>
+      <c r="T73" t="s">
+        <v>52</v>
+      </c>
+      <c r="U73" t="s">
+        <v>53</v>
+      </c>
+      <c r="V73" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22">
+      <c r="A74" t="s">
+        <v>22</v>
+      </c>
+      <c r="B74" t="s">
+        <v>25</v>
+      </c>
+      <c r="C74" t="s">
+        <v>33</v>
+      </c>
+      <c r="D74" t="s">
+        <v>48</v>
+      </c>
+      <c r="E74" t="s">
+        <v>49</v>
+      </c>
+      <c r="F74">
+        <v>160</v>
+      </c>
+      <c r="G74">
+        <v>690.659882792642</v>
+      </c>
+      <c r="H74">
+        <v>8160</v>
+      </c>
+      <c r="I74">
+        <v>4509</v>
+      </c>
+      <c r="J74">
+        <v>20.1612903225806</v>
+      </c>
+      <c r="K74">
+        <v>39.5161290322581</v>
+      </c>
+      <c r="L74">
+        <v>169</v>
+      </c>
+      <c r="M74">
+        <v>570</v>
+      </c>
+      <c r="N74">
+        <v>950.78</v>
+      </c>
+      <c r="O74">
+        <v>2721.74</v>
+      </c>
+      <c r="P74">
+        <v>1789653</v>
+      </c>
+      <c r="Q74">
+        <v>5517436</v>
+      </c>
+      <c r="R74" t="s">
+        <v>50</v>
+      </c>
+      <c r="S74" t="s">
+        <v>51</v>
+      </c>
+      <c r="T74" t="s">
+        <v>52</v>
+      </c>
+      <c r="U74" t="s">
+        <v>53</v>
+      </c>
+      <c r="V74" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22">
+      <c r="A75" t="s">
+        <v>22</v>
+      </c>
+      <c r="B75" t="s">
+        <v>26</v>
+      </c>
+      <c r="C75" t="s">
+        <v>31</v>
+      </c>
+      <c r="D75" t="s">
+        <v>48</v>
+      </c>
+      <c r="E75" t="s">
+        <v>49</v>
+      </c>
+      <c r="F75">
+        <v>160</v>
+      </c>
+      <c r="G75">
+        <v>690.659882792642</v>
+      </c>
+      <c r="H75">
+        <v>8160</v>
+      </c>
+      <c r="I75">
+        <v>4509</v>
+      </c>
+      <c r="J75">
+        <v>20.1612903225806</v>
+      </c>
+      <c r="K75">
+        <v>39.5161290322581</v>
+      </c>
+      <c r="L75">
+        <v>169</v>
+      </c>
+      <c r="M75">
+        <v>570</v>
+      </c>
+      <c r="N75">
+        <v>950.78</v>
+      </c>
+      <c r="O75">
+        <v>2721.74</v>
+      </c>
+      <c r="P75">
+        <v>1789653</v>
+      </c>
+      <c r="Q75">
+        <v>5517436</v>
+      </c>
+      <c r="R75" t="s">
+        <v>50</v>
+      </c>
+      <c r="S75" t="s">
+        <v>51</v>
+      </c>
+      <c r="T75" t="s">
+        <v>52</v>
+      </c>
+      <c r="U75" t="s">
+        <v>53</v>
+      </c>
+      <c r="V75" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22">
+      <c r="A76" t="s">
+        <v>22</v>
+      </c>
+      <c r="B76" t="s">
+        <v>27</v>
+      </c>
+      <c r="C76" t="s">
+        <v>32</v>
+      </c>
+      <c r="D76" t="s">
+        <v>48</v>
+      </c>
+      <c r="E76" t="s">
+        <v>49</v>
+      </c>
+      <c r="F76">
+        <v>160</v>
+      </c>
+      <c r="G76">
+        <v>690.659882792642</v>
+      </c>
+      <c r="H76">
+        <v>8160</v>
+      </c>
+      <c r="I76">
+        <v>4509</v>
+      </c>
+      <c r="J76">
+        <v>20.1612903225806</v>
+      </c>
+      <c r="K76">
+        <v>39.5161290322581</v>
+      </c>
+      <c r="L76">
+        <v>169</v>
+      </c>
+      <c r="M76">
+        <v>570</v>
+      </c>
+      <c r="N76">
+        <v>950.78</v>
+      </c>
+      <c r="O76">
+        <v>2721.74</v>
+      </c>
+      <c r="P76">
+        <v>1789653</v>
+      </c>
+      <c r="Q76">
+        <v>5517436</v>
+      </c>
+      <c r="R76" t="s">
+        <v>50</v>
+      </c>
+      <c r="S76" t="s">
+        <v>51</v>
+      </c>
+      <c r="T76" t="s">
+        <v>52</v>
+      </c>
+      <c r="U76" t="s">
+        <v>53</v>
+      </c>
+      <c r="V76" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
